--- a/posesiones/1381281.xlsx
+++ b/posesiones/1381281.xlsx
@@ -1199,10 +1199,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>17</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <v>12</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17">
         <v>18</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>11</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21">
         <v>16</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R23">
         <v>16</v>
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>17</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>9</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>18</v>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>17</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>12</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>18</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R35">
         <v>5</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>19</v>
@@ -2958,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R38">
         <v>22</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>15</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>22</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R47">
         <v>25</v>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R49">
         <v>24</v>
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R50">
         <v>15</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R56">
         <v>20</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R60">
         <v>29</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R65">
         <v>19</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4525,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R70">
         <v>19</v>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4628,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R72">
         <v>14</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>9</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R76">
         <v>21</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -4931,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R78">
         <v>13</v>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R79">
         <v>24</v>
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R80">
         <v>15</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R82">
         <v>24</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5240,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R84">
         <v>14</v>
@@ -5293,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R85">
         <v>21</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5393,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R87">
         <v>25</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R89">
         <v>4</v>
@@ -5540,10 +5540,10 @@
         <v>1</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -5825,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R96">
         <v>17</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6025,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R100">
         <v>17</v>
@@ -6078,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R101">
         <v>26</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R103">
         <v>21</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R105">
         <v>27</v>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6378,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R107">
         <v>27</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -6904,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R118">
         <v>20</v>
@@ -6957,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R119">
         <v>19</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7104,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R122">
         <v>21</v>
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7204,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R124">
         <v>7</v>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R131">
         <v>26</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R133">
         <v>15</v>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -7739,7 +7739,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R135">
         <v>22</v>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -7939,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R139">
         <v>33</v>
@@ -7992,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R140">
         <v>20</v>
@@ -8042,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8092,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R142">
         <v>19</v>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8192,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R144">
         <v>17</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -8577,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R152">
         <v>19</v>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -8677,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R154">
         <v>15</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -8821,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -8918,7 +8918,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R159">
         <v>28</v>
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9062,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9162,7 +9162,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R164">
         <v>19</v>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9259,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9356,7 +9356,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R168">
         <v>25</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -9456,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R170">
         <v>5</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -9785,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -9979,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R181">
         <v>21</v>
@@ -10032,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R182">
         <v>6</v>
@@ -10085,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R183">
         <v>21</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10185,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R185">
         <v>19</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10288,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R187">
         <v>15</v>
@@ -10338,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10388,7 +10388,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R189">
         <v>16</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -10491,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R191">
         <v>15</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
